--- a/files_for_lab/anova_lab_data.xlsx
+++ b/files_for_lab/anova_lab_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshuaggarwal/data/01-lesson_plans/07-unit_adv_stats_feature_selecftion_Trees_ensemble_methods/7.05_/lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbdf0a4ae42c3e5d/Escritorio/lab-inferential-statistics-anova/lab-inferential-statistics-anova/files_for_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BCEDA-F489-CF4E-91D8-0E2205FE340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{642BCEDA-F489-CF4E-91D8-0E2205FE340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316DD0E1-0922-4BCE-B329-17097BCAAC58}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2300" windowWidth="21900" windowHeight="12940" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
   </bookViews>
   <sheets>
     <sheet name="data_collected" sheetId="2" r:id="rId1"/>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,9 +170,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,23 +490,23 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -517,7 +514,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -525,7 +522,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -533,7 +530,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -541,7 +538,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -549,7 +546,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -557,7 +554,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -565,7 +562,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -573,7 +570,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -581,7 +578,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -589,7 +586,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -597,7 +594,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -605,7 +602,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -613,7 +610,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -621,7 +618,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -643,20 +640,20 @@
       <selection activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
@@ -715,7 +712,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,17 +726,17 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>9</v>
       </c>
@@ -747,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
@@ -775,7 +772,7 @@
         <v>5.7919999999999998</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -803,7 +800,7 @@
         <v>6.2379999999999995</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
@@ -831,7 +828,7 @@
         <v>8.3179999999999996</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -847,7 +844,7 @@
         <v>6.7826666666666666</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
